--- a/data/processed/stock_summary_2025-03-09.xlsx
+++ b/data/processed/stock_summary_2025-03-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,6 +845,92 @@
         <v>0.84</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>Daily Range</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>Volatility (%)</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>Change (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Analysis</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Most Volatile: IBM</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Biggest Gainer: IBM</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Biggest Loser: MSFT</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>5.17/-0.9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/processed/stock_summary_2025-03-09.xlsx
+++ b/data/processed/stock_summary_2025-03-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,377 +557,89 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GOOGL</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>171.26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>174.97</v>
-      </c>
-      <c r="E4" t="n">
-        <v>170.27</v>
-      </c>
-      <c r="F4" t="n">
-        <v>173.86</v>
-      </c>
-      <c r="G4" t="n">
-        <v>27385813</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AMZN</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>199.49</v>
-      </c>
-      <c r="D5" t="n">
-        <v>202.2653</v>
-      </c>
-      <c r="E5" t="n">
-        <v>192.53</v>
-      </c>
-      <c r="F5" t="n">
-        <v>199.25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>59802821</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-0.72</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Daily Range</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>Volatility (%)</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Change (%)</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>META</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>625.37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>634.79</v>
-      </c>
-      <c r="E6" t="n">
-        <v>600.61</v>
-      </c>
-      <c r="F6" t="n">
-        <v>625.66</v>
-      </c>
-      <c r="G6" t="n">
-        <v>21375671</v>
-      </c>
-      <c r="H6" t="n">
-        <v>34.18</v>
-      </c>
+          <t>Most Volatile: AAPL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Biggest Gainer: AAPL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Biggest Loser: MSFT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>NVDA</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>111.25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>113.48</v>
-      </c>
-      <c r="E7" t="n">
-        <v>107.56</v>
-      </c>
-      <c r="F7" t="n">
-        <v>112.69</v>
-      </c>
-      <c r="G7" t="n">
-        <v>341755468</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TSLA</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>259.32</v>
-      </c>
-      <c r="D8" t="n">
-        <v>266.2499</v>
-      </c>
-      <c r="E8" t="n">
-        <v>250.73</v>
-      </c>
-      <c r="F8" t="n">
-        <v>262.67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>102369640</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>INTC</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>20.27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="F9" t="n">
-        <v>20.64</v>
-      </c>
-      <c r="G9" t="n">
-        <v>81099646</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-0.53</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>IBM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>245.95</v>
-      </c>
-      <c r="D10" t="n">
-        <v>261.96</v>
-      </c>
-      <c r="E10" t="n">
-        <v>245.1823</v>
-      </c>
-      <c r="F10" t="n">
-        <v>261.54</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6700184</v>
-      </c>
-      <c r="H10" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>64.17</v>
-      </c>
-      <c r="E11" t="n">
-        <v>62.19</v>
-      </c>
-      <c r="F11" t="n">
-        <v>63.94</v>
-      </c>
-      <c r="G11" t="n">
-        <v>21154785</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Symbol</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>Daily Range</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>Volatility (%)</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>Change (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Analysis</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Most Volatile: IBM</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Biggest Gainer: IBM</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Biggest Loser: MSFT</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>5.17/-0.9</t>
+        <v>2.76</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.59/-0.9</t>
         </is>
       </c>
     </row>
